--- a/notebooks/data_inventory.xlsx
+++ b/notebooks/data_inventory.xlsx
@@ -61,7 +61,7 @@
     <t>Synthetisch generiert für Demonstrationszwecke</t>
   </si>
   <si>
-    <t>10 Einträge</t>
+    <t>50 Einträge</t>
   </si>
   <si>
     <t>Hochwertige synthetische Beispieldaten</t>
@@ -88,7 +88,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -501,7 +501,7 @@
     <col min="6" max="6" style="5" width="40.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -521,7 +521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -541,7 +541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="32.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
